--- a/DataGenerator/XLSXS/Test.xlsx
+++ b/DataGenerator/XLSXS/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunja\Documents\SubProject\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79D7F41-0ED2-4952-91C6-14CD8F35A8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8ECA73-9A9D-4461-A3B8-277FABEE838A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>테스트값1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -47,6 +47,10 @@
   </si>
   <si>
     <t>안녕하세요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이염</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -370,10 +374,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -410,6 +414,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
